--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl5-Ccr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl5-Ccr1.xlsx
@@ -537,46 +537,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.708386</v>
+        <v>0.3410236666666666</v>
       </c>
       <c r="H2">
-        <v>5.125158</v>
+        <v>1.023071</v>
       </c>
       <c r="I2">
-        <v>0.09367635209466295</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="J2">
-        <v>0.09367635209466295</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>114.5606336666667</v>
+        <v>0.04191666666666666</v>
       </c>
       <c r="N2">
-        <v>343.681901</v>
+        <v>0.12575</v>
       </c>
       <c r="O2">
-        <v>0.7368570786832789</v>
+        <v>0.007985764192544619</v>
       </c>
       <c r="P2">
-        <v>0.736857078683279</v>
+        <v>0.007985764192544619</v>
       </c>
       <c r="Q2">
-        <v>195.713782707262</v>
+        <v>0.01429457536111111</v>
       </c>
       <c r="R2">
-        <v>1761.424044365358</v>
+        <v>0.12865117825</v>
       </c>
       <c r="S2">
-        <v>0.0690260831461796</v>
+        <v>0.0001477626307869289</v>
       </c>
       <c r="T2">
-        <v>0.0690260831461796</v>
+        <v>0.0001477626307869289</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.708386</v>
+        <v>0.3410236666666666</v>
       </c>
       <c r="H3">
-        <v>5.125158</v>
+        <v>1.023071</v>
       </c>
       <c r="I3">
-        <v>0.09367635209466295</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="J3">
-        <v>0.09367635209466295</v>
+        <v>0.01850325494520333</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.91135266666667</v>
+        <v>5.207007</v>
       </c>
       <c r="N3">
-        <v>122.734058</v>
+        <v>15.621021</v>
       </c>
       <c r="O3">
-        <v>0.263142921316721</v>
+        <v>0.9920142358074554</v>
       </c>
       <c r="P3">
-        <v>0.2631429213167211</v>
+        <v>0.9920142358074554</v>
       </c>
       <c r="Q3">
-        <v>69.892382136796</v>
+        <v>1.775712619499</v>
       </c>
       <c r="R3">
-        <v>629.031439231164</v>
+        <v>15.981413575491</v>
       </c>
       <c r="S3">
-        <v>0.02465026894848335</v>
+        <v>0.0183554923144164</v>
       </c>
       <c r="T3">
-        <v>0.02465026894848335</v>
+        <v>0.0183554923144164</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,40 +667,40 @@
         <v>11.528539</v>
       </c>
       <c r="I4">
-        <v>0.210715743495333</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="J4">
-        <v>0.2107157434953329</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>114.5606336666667</v>
+        <v>0.04191666666666666</v>
       </c>
       <c r="N4">
-        <v>343.681901</v>
+        <v>0.12575</v>
       </c>
       <c r="O4">
-        <v>0.7368570786832789</v>
+        <v>0.007985764192544619</v>
       </c>
       <c r="P4">
-        <v>0.736857078683279</v>
+        <v>0.007985764192544619</v>
       </c>
       <c r="Q4">
-        <v>440.2389110302933</v>
+        <v>0.1610793088055556</v>
       </c>
       <c r="R4">
-        <v>3962.150199272639</v>
+        <v>1.44971377925</v>
       </c>
       <c r="S4">
-        <v>0.1552673871845462</v>
+        <v>0.001665072367186354</v>
       </c>
       <c r="T4">
-        <v>0.1552673871845462</v>
+        <v>0.001665072367186354</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>11.528539</v>
       </c>
       <c r="I5">
-        <v>0.210715743495333</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="J5">
-        <v>0.2107157434953329</v>
+        <v>0.2085050756621187</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>40.91135266666667</v>
+        <v>5.207007</v>
       </c>
       <c r="N5">
-        <v>122.734058</v>
+        <v>15.621021</v>
       </c>
       <c r="O5">
-        <v>0.263142921316721</v>
+        <v>0.9920142358074554</v>
       </c>
       <c r="P5">
-        <v>0.2631429213167211</v>
+        <v>0.9920142358074554</v>
       </c>
       <c r="Q5">
-        <v>157.2160415868069</v>
+        <v>20.009727757591</v>
       </c>
       <c r="R5">
-        <v>1414.944374281262</v>
+        <v>180.087549818319</v>
       </c>
       <c r="S5">
-        <v>0.05544835631078677</v>
+        <v>0.2068400032949324</v>
       </c>
       <c r="T5">
-        <v>0.05544835631078677</v>
+        <v>0.2068400032949323</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.4572023333333333</v>
+        <v>0.2092423333333333</v>
       </c>
       <c r="H6">
-        <v>1.371607</v>
+        <v>0.627727</v>
       </c>
       <c r="I6">
-        <v>0.02506988862928798</v>
+        <v>0.0113530661283407</v>
       </c>
       <c r="J6">
-        <v>0.02506988862928798</v>
+        <v>0.0113530661283407</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>114.5606336666667</v>
+        <v>0.04191666666666666</v>
       </c>
       <c r="N6">
-        <v>343.681901</v>
+        <v>0.12575</v>
       </c>
       <c r="O6">
-        <v>0.7368570786832789</v>
+        <v>0.007985764192544619</v>
       </c>
       <c r="P6">
-        <v>0.736857078683279</v>
+        <v>0.007985764192544619</v>
       </c>
       <c r="Q6">
-        <v>52.37738902054522</v>
+        <v>0.008770741138888889</v>
       </c>
       <c r="R6">
-        <v>471.396501184907</v>
+        <v>0.07893667025000001</v>
       </c>
       <c r="S6">
-        <v>0.0184729248982923</v>
+        <v>9.066290896329434E-05</v>
       </c>
       <c r="T6">
-        <v>0.0184729248982923</v>
+        <v>9.066290896329434E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.4572023333333333</v>
+        <v>0.2092423333333333</v>
       </c>
       <c r="H7">
-        <v>1.371607</v>
+        <v>0.627727</v>
       </c>
       <c r="I7">
-        <v>0.02506988862928798</v>
+        <v>0.0113530661283407</v>
       </c>
       <c r="J7">
-        <v>0.02506988862928798</v>
+        <v>0.0113530661283407</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.91135266666667</v>
+        <v>5.207007</v>
       </c>
       <c r="N7">
-        <v>122.734058</v>
+        <v>15.621021</v>
       </c>
       <c r="O7">
-        <v>0.263142921316721</v>
+        <v>0.9920142358074554</v>
       </c>
       <c r="P7">
-        <v>0.2631429213167211</v>
+        <v>0.9920142358074554</v>
       </c>
       <c r="Q7">
-        <v>18.70476589902288</v>
+        <v>1.089526294363</v>
       </c>
       <c r="R7">
-        <v>168.342893091206</v>
+        <v>9.805736649267001</v>
       </c>
       <c r="S7">
-        <v>0.006596963730995687</v>
+        <v>0.01126240321937741</v>
       </c>
       <c r="T7">
-        <v>0.006596963730995688</v>
+        <v>0.01126240321937741</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.228676</v>
+        <v>14.03735666666667</v>
       </c>
       <c r="H8">
-        <v>36.68602799999999</v>
+        <v>42.11207</v>
       </c>
       <c r="I8">
-        <v>0.670538015780716</v>
+        <v>0.7616386032643372</v>
       </c>
       <c r="J8">
-        <v>0.670538015780716</v>
+        <v>0.7616386032643372</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>114.5606336666667</v>
+        <v>0.04191666666666666</v>
       </c>
       <c r="N8">
-        <v>343.681901</v>
+        <v>0.12575</v>
       </c>
       <c r="O8">
-        <v>0.7368570786832789</v>
+        <v>0.007985764192544619</v>
       </c>
       <c r="P8">
-        <v>0.736857078683279</v>
+        <v>0.007985764192544619</v>
       </c>
       <c r="Q8">
-        <v>1400.924871464359</v>
+        <v>0.5883992002777778</v>
       </c>
       <c r="R8">
-        <v>12608.32384317923</v>
+        <v>5.295592802500001</v>
       </c>
       <c r="S8">
-        <v>0.4940906834542608</v>
+        <v>0.006082266285608041</v>
       </c>
       <c r="T8">
-        <v>0.4940906834542608</v>
+        <v>0.006082266285608041</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.228676</v>
+        <v>14.03735666666667</v>
       </c>
       <c r="H9">
-        <v>36.68602799999999</v>
+        <v>42.11207</v>
       </c>
       <c r="I9">
-        <v>0.670538015780716</v>
+        <v>0.7616386032643372</v>
       </c>
       <c r="J9">
-        <v>0.670538015780716</v>
+        <v>0.7616386032643372</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>40.91135266666667</v>
+        <v>5.207007</v>
       </c>
       <c r="N9">
-        <v>122.734058</v>
+        <v>15.621021</v>
       </c>
       <c r="O9">
-        <v>0.263142921316721</v>
+        <v>0.9920142358074554</v>
       </c>
       <c r="P9">
-        <v>0.2631429213167211</v>
+        <v>0.9920142358074554</v>
       </c>
       <c r="Q9">
-        <v>500.2916764824026</v>
+        <v>73.09261442483</v>
       </c>
       <c r="R9">
-        <v>4502.625088341623</v>
+        <v>657.83352982347</v>
       </c>
       <c r="S9">
-        <v>0.1764473323264552</v>
+        <v>0.7555563369787291</v>
       </c>
       <c r="T9">
-        <v>0.1764473323264552</v>
+        <v>0.7555563369787291</v>
       </c>
     </row>
   </sheetData>
